--- a/Stereotaxic Parts List.xlsx
+++ b/Stereotaxic Parts List.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01bcc1a4e60e225b/Active Folder/Programming/PycharmProjects/Stereotaxiccontrol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{C5FEC8E3-01B7-4CE6-A30C-16EEB4E1FDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52FEE30F-B993-42B9-BE65-0CE8F8922B51}"/>
+  <xr:revisionPtr revIDLastSave="369" documentId="8_{C5FEC8E3-01B7-4CE6-A30C-16EEB4E1FDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FA18972-4703-4DAE-970D-57E52A2C4087}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{91600FFD-6F05-46D3-8830-DE4393442829}"/>
+    <workbookView minimized="1" xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" activeTab="1" xr2:uid="{91600FFD-6F05-46D3-8830-DE4393442829}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Parts Sheet - IC debouncer" sheetId="3" r:id="rId1"/>
+    <sheet name="Parts Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Old sheet" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
-  <si>
-    <t>Schmitt Trigger 14-PDIP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="93">
   <si>
     <t>Digikey.ca</t>
   </si>
@@ -62,15 +61,6 @@
     <t>B0D3TLQCFH</t>
   </si>
   <si>
-    <t>Raspberry PI 4b+ (4GB) (or better)</t>
-  </si>
-  <si>
-    <t>Buyapi.ca</t>
-  </si>
-  <si>
-    <t>4GB-9004</t>
-  </si>
-  <si>
     <t>7 inch LCD monitor</t>
   </si>
   <si>
@@ -80,47 +70,263 @@
     <t>Round button tactile switch (12x12x7.3)</t>
   </si>
   <si>
-    <t>number needed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDMI ribbon cable </t>
-  </si>
-  <si>
-    <t>NOTE: end types!!!!!</t>
-  </si>
-  <si>
-    <t>printable vinyl sticker paper</t>
-  </si>
-  <si>
-    <t>SN74HC14N</t>
-  </si>
-  <si>
-    <t>Shift register</t>
-  </si>
-  <si>
-    <t>SN74HC165N</t>
-  </si>
-  <si>
-    <t>EasyDriver - Stepper Motor Driver - SparkFun Electronics</t>
-  </si>
-  <si>
-    <t>Jeanoko DRV8825/A4988 Stable 42 Stepper Motor Driver Expansion Board 3D Printer Control Shield Module for 3D Printer</t>
-  </si>
-  <si>
-    <t>A9888 / DRV8825</t>
-  </si>
-  <si>
     <t>WHAT IS THE MS1MS2MS3 dips set at???</t>
   </si>
   <si>
     <t>What is I turn the steps lower? Picture in onenote posersonal</t>
+  </si>
+  <si>
+    <t>10kΩ Resistor</t>
+  </si>
+  <si>
+    <t>1kΩ Resistor</t>
+  </si>
+  <si>
+    <t>Hex Inverter Schmitt Trigger SN74HC14</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 3</t>
+  </si>
+  <si>
+    <t>Sparkfun</t>
+  </si>
+  <si>
+    <t>ROB-12779</t>
+  </si>
+  <si>
+    <t>Rotary Encoder</t>
+  </si>
+  <si>
+    <t>B07VDMFFBW</t>
+  </si>
+  <si>
+    <t>pishop</t>
+  </si>
+  <si>
+    <t>Bestbuy</t>
+  </si>
+  <si>
+    <t>micro SD Card (min 16gb)</t>
+  </si>
+  <si>
+    <t>Shifft Register SN74HC165N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Position ON/Off/ON Toggle Rocker Switch </t>
+  </si>
+  <si>
+    <t>B085ZPD1FM</t>
+  </si>
+  <si>
+    <t>Option 2:</t>
+  </si>
+  <si>
+    <t>B08RP2SCJ7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option 1: </t>
+  </si>
+  <si>
+    <t>EasyDriver_v44 (illustrated in wiring diagram)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor Driver Expansion Board </t>
+  </si>
+  <si>
+    <t>Option 3:</t>
+  </si>
+  <si>
+    <t>B0BLKPQ5NY</t>
+  </si>
+  <si>
+    <t>DRV8825 stepper driver</t>
+  </si>
+  <si>
+    <t>A4988 stepper driver</t>
+  </si>
+  <si>
+    <t>B0CD2F5K4D</t>
+  </si>
+  <si>
+    <t>B0BKF4B1Z4</t>
+  </si>
+  <si>
+    <t>Printable vinyl sticker paper</t>
+  </si>
+  <si>
+    <t>B0CJF87KDM</t>
+  </si>
+  <si>
+    <t>B07CG7VTGD</t>
+  </si>
+  <si>
+    <t>B07PCSL919</t>
+  </si>
+  <si>
+    <t>LM2596S DC-DC stepdown buck converter 3A</t>
+  </si>
+  <si>
+    <t>HDMI ribbon cable with appropriate 90 degree bend on 1 end</t>
+  </si>
+  <si>
+    <t>B07R6CWPH1</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Approx price per</t>
+  </si>
+  <si>
+    <t>Number needed</t>
+  </si>
+  <si>
+    <t>296-8251-5-ND</t>
+  </si>
+  <si>
+    <t>B00W96L85Y</t>
+  </si>
+  <si>
+    <t>NEMA17 stepper motor</t>
+  </si>
+  <si>
+    <t>NEMA17 stepper motor (55+ Ncm torque)</t>
+  </si>
+  <si>
+    <t>B06ZYQNBFR</t>
+  </si>
+  <si>
+    <t>CF14JT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>CF14JT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor (10uF, 35V)</t>
+  </si>
+  <si>
+    <t>490-RDEC71E106K2M1H03ACT-ND</t>
+  </si>
+  <si>
+    <t>Limit Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B01GEA8PQA</t>
+  </si>
+  <si>
+    <t>Power Supply (12V)</t>
+  </si>
+  <si>
+    <t>DIP-16 Round Hole 16 Pin 2.54MM Pitch socket</t>
+  </si>
+  <si>
+    <t>B0D9JGXBJB</t>
+  </si>
+  <si>
+    <t>Power Jack 5.5x2.5mm</t>
+  </si>
+  <si>
+    <t>B0C8THL9NV</t>
+  </si>
+  <si>
+    <t>Heat shrink tubing</t>
+  </si>
+  <si>
+    <t>Wire (28 or 30 gauge)</t>
+  </si>
+  <si>
+    <t>Wire (24 or 26 gauge)</t>
+  </si>
+  <si>
+    <t>M2 bolts</t>
+  </si>
+  <si>
+    <t>M2 nuts</t>
+  </si>
+  <si>
+    <t>M3 bolts</t>
+  </si>
+  <si>
+    <t>M5 tap</t>
+  </si>
+  <si>
+    <t>B0BGNR2G31</t>
+  </si>
+  <si>
+    <t>Prototype board 5x7 universal</t>
+  </si>
+  <si>
+    <t>M3 threaded inserts</t>
+  </si>
+  <si>
+    <t>399-4264-ND</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor (0.1uF 50V)</t>
+  </si>
+  <si>
+    <t>MAX6818EAP+TCT-ND - Cut Tape (CT)</t>
+  </si>
+  <si>
+    <t>Switch Debouncer - MAX6818EAP+T</t>
+  </si>
+  <si>
+    <t>NOTE:</t>
+  </si>
+  <si>
+    <t>Expandable Braided Sleeving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	B07S81TNXL</t>
+  </si>
+  <si>
+    <t>GT2 20 tooth pulley 5mm bore</t>
+  </si>
+  <si>
+    <t>GT2 20 tooth pulley 4mm bore</t>
+  </si>
+  <si>
+    <t>B078Z7ZGGF</t>
+  </si>
+  <si>
+    <t>B078Z6YZCY</t>
+  </si>
+  <si>
+    <t>4mm to 5mm Bore Rigid Coupling 20mm Length 9mm Dia Brass Shaft Coupler</t>
+  </si>
+  <si>
+    <t>B0D3TKG5WN</t>
+  </si>
+  <si>
+    <t>Is there a capaciotor in the encoders?</t>
+  </si>
+  <si>
+    <t>Make a tapping guide.</t>
+  </si>
+  <si>
+    <t>Prototype board Solderable BreadBoard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	B083YTPYYQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +338,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,9 +378,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -177,10 +411,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,174 +729,2150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838F9AFB-6B4A-43B0-9CD9-AA347CD8C7CB}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB55CA4-82FD-433D-9CB7-496234C7144C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="46.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2*F2</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16.12</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <f>E3*F3</f>
+        <v>32.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G29" si="0">E4*F4</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E11" s="3"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>17.989999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5">
+        <v>9001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>49.95</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.21</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2">
+        <v>28</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="2">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="64" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B1BA4C-8C2B-42A8-AF0E-64CF592D7EC7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2*F2</f>
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G30" si="0">E3*F3</f>
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>5.52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>17.989999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5">
+        <v>9001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>49.95</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.21</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2">
+        <v>28</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="2">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" ref="G31:G32" si="1">E31*F31</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" ref="G33" si="2">E33*F33</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" ref="G34" si="3">E34*F34</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="64" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838F9AFB-6B4A-43B0-9CD9-AA347CD8C7CB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="46.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2*F2</f>
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G29" si="0">E3*F3</f>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>21.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
+      <c r="D11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
         <v>1.38</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>17.989999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5">
+        <v>9001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>49.95</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.21</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E21" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>77</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
+      <c r="E25" s="2">
         <v>60</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2">
+        <v>28</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="2">
         <v>25</v>
       </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://www.sparkfun.com/easydriver-stepper-motor-driver.html" xr:uid="{20169C3A-8D1D-401C-95A1-214F7070E8D5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="64" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Stereotaxic Parts List.xlsx
+++ b/Stereotaxic Parts List.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01bcc1a4e60e225b/Active Folder/Programming/PycharmProjects/Stereotaxiccontrol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="369" documentId="8_{C5FEC8E3-01B7-4CE6-A30C-16EEB4E1FDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FA18972-4703-4DAE-970D-57E52A2C4087}"/>
+  <xr:revisionPtr revIDLastSave="433" documentId="8_{C5FEC8E3-01B7-4CE6-A30C-16EEB4E1FDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7AEC771-5B0E-4024-9C92-1D1CEE0940BB}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" activeTab="1" xr2:uid="{91600FFD-6F05-46D3-8830-DE4393442829}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" activeTab="1" xr2:uid="{91600FFD-6F05-46D3-8830-DE4393442829}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts Sheet - IC debouncer" sheetId="3" r:id="rId1"/>
     <sheet name="Parts Sheet" sheetId="2" r:id="rId2"/>
-    <sheet name="Old sheet" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Old sheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="111">
   <si>
     <t>Digikey.ca</t>
   </si>
@@ -317,13 +318,68 @@
   </si>
   <si>
     <t xml:space="preserve">	B083YTPYYQ</t>
+  </si>
+  <si>
+    <t>‎B0CDBC81MG</t>
+  </si>
+  <si>
+    <t>Micro USB Male Type B 5 Terminal Jack Port Solder Connector</t>
+  </si>
+  <si>
+    <t>B079Z8RTSM</t>
+  </si>
+  <si>
+    <t>B0D1QFFHDK</t>
+  </si>
+  <si>
+    <t>1 per</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Part number</t>
+  </si>
+  <si>
+    <t>per unit price</t>
+  </si>
+  <si>
+    <t>number piece required</t>
+  </si>
+  <si>
+    <t>$12 for 20 pack</t>
+  </si>
+  <si>
+    <t>$18 for 2 pack</t>
+  </si>
+  <si>
+    <t>$11 for 10 pack</t>
+  </si>
+  <si>
+    <t>$18 for 10 pack</t>
+  </si>
+  <si>
+    <t>$16 for 5 pack</t>
+  </si>
+  <si>
+    <t>Order volume</t>
+  </si>
+  <si>
+    <t>Female Power Jack 5.5x2.5mm</t>
+  </si>
+  <si>
+    <t>Rii USB wireless keyboard (or similar)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -357,15 +413,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -373,12 +441,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -395,6 +478,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1400,10 +1500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1472,7 +1572,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G30" si="0">E3*F3</f>
+        <f t="shared" ref="G3:G29" si="0">E3*F3</f>
         <v>3.84</v>
       </c>
     </row>
@@ -1683,30 +1783,30 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="12">
         <v>17.989999999999998</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
         <f t="shared" si="0"/>
         <v>17.989999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -1725,41 +1825,42 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="11">
         <v>9001</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="12">
         <v>49.95</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
         <f t="shared" si="0"/>
         <v>49.95</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="2">
+      <c r="D16" s="11"/>
+      <c r="E16" s="12">
         <v>35</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -1850,296 +1951,296 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21">
         <v>6</v>
       </c>
-      <c r="E21" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
       <c r="G21" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="0"/>
         <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="12">
+        <v>60</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="15">
+        <v>19</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="12">
+        <v>9</v>
+      </c>
+      <c r="F26" s="10">
         <v>2</v>
       </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2">
-        <v>60</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="2">
-        <v>19</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="2">
-        <v>28</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="0"/>
-        <v>56</v>
+      <c r="G26" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="12">
+        <v>25</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E28" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E29" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" ref="G30:G31" si="1">E30*F30</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="12">
+        <v>3</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="12">
+        <v>3</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" ref="G32" si="2">E32*F32</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="12">
         <v>2</v>
       </c>
-      <c r="G30" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="2">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" ref="G31:G32" si="1">E31*F31</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="2">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="2">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <f t="shared" ref="G33" si="2">E33*F33</f>
-        <v>3</v>
+      <c r="F33" s="10">
+        <v>3</v>
+      </c>
+      <c r="G33" s="12">
+        <f t="shared" ref="G33:G34" si="3">E33*F33</f>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E34" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" ref="G34" si="3">E34*F34</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2185,6 +2286,11 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2194,6 +2300,245 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDA1B17-8C3C-4C10-A40A-336668760147}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="51.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="19">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="18">
+        <v>9001</v>
+      </c>
+      <c r="D3" s="19">
+        <v>49.95</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19">
+        <v>35</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="19">
+        <v>60</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="19">
+        <v>9</v>
+      </c>
+      <c r="E7" s="17">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="19">
+        <v>25</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="19">
+        <v>3</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="19">
+        <v>3</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2</v>
+      </c>
+      <c r="E11" s="17">
+        <v>3</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838F9AFB-6B4A-43B0-9CD9-AA347CD8C7CB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
